--- a/data/trans_dic/P04D$individual-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 28,97</t>
+          <t>17,94; 28,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,17; 40,84</t>
+          <t>29,42; 41,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,89; 42,73</t>
+          <t>29,77; 43,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,66; 30,57</t>
+          <t>19,86; 30,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,36; 46,94</t>
+          <t>35,31; 47,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,11; 37,2</t>
+          <t>28,14; 36,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 27,87</t>
+          <t>20,5; 27,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,88; 42,07</t>
+          <t>33,5; 42,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,54; 38,36</t>
+          <t>30,48; 38,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 24,67</t>
+          <t>17,42; 25,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,01; 41,79</t>
+          <t>33,02; 42,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,38</t>
+          <t>1,48; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,73; 22,63</t>
+          <t>15,89; 22,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,76; 47,81</t>
+          <t>38,87; 47,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,81</t>
+          <t>1,96; 4,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 22,73</t>
+          <t>17,46; 22,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,27; 43,61</t>
+          <t>37,33; 43,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,29</t>
+          <t>2,01; 4,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 27,0</t>
+          <t>17,86; 26,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 19,44</t>
+          <t>11,53; 19,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 19,76</t>
+          <t>11,69; 19,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,12</t>
+          <t>14,75; 23,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 20,17</t>
+          <t>12,24; 20,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 16,65</t>
+          <t>9,71; 16,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 23,62</t>
+          <t>17,65; 23,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,36</t>
+          <t>12,95; 18,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,64</t>
+          <t>11,75; 16,86</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 38,42</t>
+          <t>27,6; 38,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,03; 34,64</t>
+          <t>24,89; 34,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,62; 53,67</t>
+          <t>39,82; 54,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,49; 36,82</t>
+          <t>26,98; 36,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 32,42</t>
+          <t>22,81; 32,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,06; 37,05</t>
+          <t>17,85; 37,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,71; 35,72</t>
+          <t>28,75; 35,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,45; 31,94</t>
+          <t>25,33; 32,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 42,61</t>
+          <t>26,09; 42,22</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 28,27</t>
+          <t>16,62; 28,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 13,79</t>
+          <t>5,83; 13,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,46; 35,12</t>
+          <t>23,56; 35,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,66</t>
+          <t>5,39; 12,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,5</t>
+          <t>0,91; 4,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,68; 30,26</t>
+          <t>21,52; 29,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 12,07</t>
+          <t>6,42; 11,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,75</t>
+          <t>0,67; 2,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 31,87</t>
+          <t>20,4; 31,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,74; 31,67</t>
+          <t>20,72; 31,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,71</t>
+          <t>11,97; 20,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,67; 30,25</t>
+          <t>19,82; 30,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,79; 36,97</t>
+          <t>25,93; 36,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,25; 17,69</t>
+          <t>10,31; 17,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,86; 30,17</t>
+          <t>20,94; 28,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,61</t>
+          <t>24,78; 32,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,44</t>
+          <t>12,1; 17,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,17</t>
+          <t>21,52; 28,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,57; 28,71</t>
+          <t>21,7; 28,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,39; 34,07</t>
+          <t>25,08; 34,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,78</t>
+          <t>21,25; 28,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,74; 29,84</t>
+          <t>22,78; 29,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 31,75</t>
+          <t>9,07; 31,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,14; 26,95</t>
+          <t>22,15; 26,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,56</t>
+          <t>23,1; 28,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 30,95</t>
+          <t>17,05; 30,67</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,79; 51,71</t>
+          <t>44,16; 51,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,22; 38,4</t>
+          <t>31,21; 38,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,01; 66,5</t>
+          <t>5,12; 68,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,46; 45,75</t>
+          <t>38,53; 45,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,6; 40,41</t>
+          <t>33,36; 40,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,19</t>
+          <t>4,37; 7,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,38; 47,24</t>
+          <t>42,05; 47,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,22; 38,1</t>
+          <t>33,35; 38,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 49,97</t>
+          <t>5,37; 50,41</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,16; 31,38</t>
+          <t>28,3; 31,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>26,99; 30,25</t>
+          <t>26,91; 30,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,77; 40,99</t>
+          <t>17,81; 42,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,77; 29,71</t>
+          <t>26,82; 29,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,68</t>
+          <t>29,27; 32,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,89</t>
+          <t>12,5; 16,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,96; 30,2</t>
+          <t>27,9; 30,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>28,61; 30,87</t>
+          <t>28,57; 30,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,27; 29,42</t>
+          <t>16,37; 30,53</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción individual en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67865</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103084</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112550</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70402</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>117826</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>93865</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>138267</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>220910</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>206415</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52566; 83545</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86419; 121542</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92725; 133953</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56825; 86644</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>101947; 136131</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>81513; 107095</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>118681; 161211</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>195127; 245003</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>183229; 233389</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105016</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>187442</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14829</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>99540</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>226562</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15679</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>204556</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>414004</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30508</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>87746; 126299</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>165961; 211492</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7663; 28114</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82898; 118755</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>203320; 250169</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10079; 24615</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>178981; 231672</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>382901; 447841</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20780; 45484</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>71913</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48317</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48027</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63727</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54037</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44396</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>135640</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>102354</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>92423</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>57887; 87325</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36722; 63112</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36825; 62909</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50294; 79782</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41157; 67741</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33783; 55706</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>117376; 156671</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84794; 121691</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77917; 111780</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>121821</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>109644</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>146257</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>123250</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>107403</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>138232</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>245071</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>217047</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>284489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>102948; 142177</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>92086; 128023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124462; 170958</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>104947; 142201</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>88338; 125012</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84496; 176221</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>219092; 271842</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>191788; 243199</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>205045; 331858</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46741</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19222</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>64106</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18811</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5324</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>110847</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38033</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>35344; 60726</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12311; 29397</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3452</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51746; 78595</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11784; 28365</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2361; 10918</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93021; 129525</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27600; 50652</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2921; 11930</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70737</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>67276</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>41435</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>68009</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>85825</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>35007</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>138746</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>153101</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>76442</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55893; 85963</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>54506; 82320</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>32268; 54329</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>55297; 84481</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>70827; 100910</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26513; 44354</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>115793; 159005</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>132894; 174531</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63709; 91970</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>163073</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>164900</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>182515</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>169712</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>180642</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>194445</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>332785</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>345542</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>376960</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>142604; 188693</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>142486; 189455</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>155805; 211303</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>147463; 196617</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>157504; 206810</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>76636; 265001</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>300447; 365431</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>311404; 378398</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>250086; 449813</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>369218</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>269462</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>283420</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>347142</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>303853</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>40991</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>716360</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>573316</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>324411</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>342973; 400585</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>242997; 298091</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>47451; 636025</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>317391; 375900</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>275592; 331471</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>31331; 51476</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>672966; 755799</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>535126; 609785</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>88286; 828988</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1435</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1016385</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>969347</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>829707</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1005887</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1094959</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>567939</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2022272</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2064306</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1397646</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>967788; 1074169</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>913455; 1025358</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>615159; 1480020</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>953284; 1065229</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1037651; 1155967</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>462986; 626384</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1946023; 2104058</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1982149; 2144756</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1172093; 2185682</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>